--- a/doc/JML en Javadoc.xlsx
+++ b/doc/JML en Javadoc.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="30">
   <si>
     <t>CLASS</t>
   </si>
@@ -457,7 +457,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -688,6 +688,9 @@
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
       </c>
       <c r="C21" t="s">
         <v>24</v>

--- a/doc/JML en Javadoc.xlsx
+++ b/doc/JML en Javadoc.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="30">
   <si>
     <t>CLASS</t>
   </si>
@@ -457,7 +457,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -533,6 +533,9 @@
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
       </c>
       <c r="C5" t="s">
         <v>24</v>

--- a/doc/JML en Javadoc.xlsx
+++ b/doc/JML en Javadoc.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="30">
   <si>
     <t>CLASS</t>
   </si>
@@ -457,7 +457,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -499,6 +499,12 @@
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
       </c>
       <c r="F3" t="s">
         <v>23</v>

--- a/doc/JML en Javadoc.xlsx
+++ b/doc/JML en Javadoc.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="31">
   <si>
     <t>CLASS</t>
   </si>
@@ -106,6 +106,9 @@
   </si>
   <si>
     <t>Klaar.</t>
+  </si>
+  <si>
+    <t>CHECK</t>
   </si>
 </sst>
 </file>
@@ -457,7 +460,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -562,6 +565,12 @@
       <c r="A7" t="s">
         <v>8</v>
       </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -599,6 +608,12 @@
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">

--- a/doc/JML en Javadoc.xlsx
+++ b/doc/JML en Javadoc.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="33">
   <si>
     <t>CLASS</t>
   </si>
@@ -109,6 +109,12 @@
   </si>
   <si>
     <t>CHECK</t>
+  </si>
+  <si>
+    <t>LOOPINVARIANT</t>
+  </si>
+  <si>
+    <t>PRIVATE INVARIANT</t>
   </si>
 </sst>
 </file>
@@ -460,12 +466,14 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -478,6 +486,12 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="F1" s="1" t="s">
         <v>25</v>
       </c>
@@ -674,6 +688,12 @@
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">

--- a/doc/JML en Javadoc.xlsx
+++ b/doc/JML en Javadoc.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="33">
   <si>
     <t>CLASS</t>
   </si>
@@ -463,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -476,7 +476,7 @@
     <col min="5" max="5" width="19.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -492,11 +492,11 @@
       <c r="E1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -506,14 +506,20 @@
       <c r="C2" t="s">
         <v>24</v>
       </c>
-      <c r="G2" t="s">
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" t="s">
         <v>26</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -523,17 +529,20 @@
       <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="F3" t="s">
-        <v>23</v>
+      <c r="E3" t="s">
+        <v>24</v>
       </c>
       <c r="G3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" t="s">
         <v>26</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -543,17 +552,23 @@
       <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="F4" t="s">
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
         <v>24</v>
       </c>
       <c r="G4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" t="s">
         <v>26</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -563,8 +578,14 @@
       <c r="C5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -574,8 +595,14 @@
       <c r="C6" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -585,8 +612,14 @@
       <c r="C7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -596,8 +629,14 @@
       <c r="C8" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -607,8 +646,14 @@
       <c r="C9" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -618,8 +663,14 @@
       <c r="C10" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -629,19 +680,31 @@
       <c r="C11" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -652,7 +715,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -663,7 +726,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -674,7 +737,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>

--- a/doc/JML en Javadoc.xlsx
+++ b/doc/JML en Javadoc.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="34">
   <si>
     <t>CLASS</t>
   </si>
@@ -115,6 +115,9 @@
   </si>
   <si>
     <t>PRIVATE INVARIANT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NIET </t>
   </si>
 </sst>
 </file>
@@ -466,7 +469,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -529,6 +532,9 @@
       <c r="C3" t="s">
         <v>24</v>
       </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
       <c r="E3" t="s">
         <v>24</v>
       </c>
@@ -714,6 +720,12 @@
       <c r="C13" t="s">
         <v>24</v>
       </c>
+      <c r="D13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -725,6 +737,12 @@
       <c r="C14" t="s">
         <v>24</v>
       </c>
+      <c r="D14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -736,6 +754,12 @@
       <c r="C15" t="s">
         <v>24</v>
       </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -747,8 +771,14 @@
       <c r="C16" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -759,7 +789,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -769,8 +799,14 @@
       <c r="C18" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -780,8 +816,14 @@
       <c r="C19" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -791,8 +833,14 @@
       <c r="C20" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -801,6 +849,12 @@
       </c>
       <c r="C21" t="s">
         <v>24</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/doc/JML en Javadoc.xlsx
+++ b/doc/JML en Javadoc.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="34">
   <si>
     <t>CLASS</t>
   </si>
@@ -469,7 +469,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -786,6 +786,12 @@
         <v>24</v>
       </c>
       <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" t="s">
         <v>24</v>
       </c>
     </row>
